--- a/Jogos_do_Dia/2023-06-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -157,12 +157,12 @@
     <t>Chile Primera División</t>
   </si>
   <si>
+    <t>Peru Primera División</t>
+  </si>
+  <si>
     <t>Brazil Serie D</t>
   </si>
   <si>
-    <t>Peru Primera División</t>
-  </si>
-  <si>
     <t>Argentina Primera División</t>
   </si>
   <si>
@@ -280,48 +280,48 @@
     <t>Suwon</t>
   </si>
   <si>
+    <t>Roasso Kumamoto</t>
+  </si>
+  <si>
     <t>Avispa Fukuoka</t>
   </si>
   <si>
-    <t>Roasso Kumamoto</t>
-  </si>
-  <si>
     <t>ThespaKusatsu Gunma</t>
   </si>
   <si>
     <t>Raufoss</t>
   </si>
   <si>
+    <t>Åsane</t>
+  </si>
+  <si>
+    <t>Moss</t>
+  </si>
+  <si>
+    <t>Cerro</t>
+  </si>
+  <si>
     <t>KFUM</t>
   </si>
   <si>
-    <t>Åsane</t>
-  </si>
-  <si>
-    <t>Cerro</t>
-  </si>
-  <si>
-    <t>Moss</t>
-  </si>
-  <si>
     <t>Mirassol</t>
   </si>
   <si>
     <t>HamKam</t>
   </si>
   <si>
+    <t>Rosenborg</t>
+  </si>
+  <si>
+    <t>Tromsø</t>
+  </si>
+  <si>
     <t>Brown de Adrogué</t>
   </si>
   <si>
     <t>Molde</t>
   </si>
   <si>
-    <t>Tromsø</t>
-  </si>
-  <si>
-    <t>Rosenborg</t>
-  </si>
-  <si>
     <t>Juventud</t>
   </si>
   <si>
@@ -331,63 +331,63 @@
     <t>Strømsgodset</t>
   </si>
   <si>
+    <t>Alianza Atlético</t>
+  </si>
+  <si>
+    <t>Guillermo Brown</t>
+  </si>
+  <si>
+    <t>Caxias</t>
+  </si>
+  <si>
+    <t>Deportivo Maldonado</t>
+  </si>
+  <si>
     <t>Tacuarembó</t>
   </si>
   <si>
     <t>Estudiantes Caseros</t>
   </si>
   <si>
-    <t>Caxias</t>
-  </si>
-  <si>
-    <t>Alianza Atlético</t>
-  </si>
-  <si>
-    <t>Deportivo Maldonado</t>
-  </si>
-  <si>
-    <t>Guillermo Brown</t>
-  </si>
-  <si>
     <t>San Martín Tucumán</t>
   </si>
   <si>
     <t>Sampaio Corrêa</t>
   </si>
   <si>
+    <t>Iporá</t>
+  </si>
+  <si>
     <t>Deportivo Maipú</t>
   </si>
   <si>
-    <t>Iporá</t>
-  </si>
-  <si>
     <t>Arsenal de Sarandí</t>
   </si>
   <si>
+    <t>Altos</t>
+  </si>
+  <si>
+    <t>Aimoré</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Grêmio</t>
+  </si>
+  <si>
+    <t>Real Ariquemes</t>
+  </si>
+  <si>
+    <t>Valour FC</t>
+  </si>
+  <si>
+    <t>Club Always Ready</t>
+  </si>
+  <si>
     <t>Aldosivi</t>
   </si>
   <si>
-    <t>Altos</t>
-  </si>
-  <si>
-    <t>Aimoré</t>
-  </si>
-  <si>
-    <t>Real Ariquemes</t>
-  </si>
-  <si>
-    <t>Grêmio</t>
-  </si>
-  <si>
-    <t>Valour FC</t>
-  </si>
-  <si>
-    <t>Club Always Ready</t>
-  </si>
-  <si>
-    <t>Palmeiras</t>
-  </si>
-  <si>
     <t>Volta Redonda</t>
   </si>
   <si>
@@ -397,36 +397,36 @@
     <t>Deportivo Táchira</t>
   </si>
   <si>
+    <t>Torque</t>
+  </si>
+  <si>
     <t>Unión Comercio</t>
   </si>
   <si>
-    <t>Torque</t>
-  </si>
-  <si>
     <t>Guarani</t>
   </si>
   <si>
+    <t>América Mineiro</t>
+  </si>
+  <si>
+    <t>Bragantino</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
     <t>Bolívar</t>
   </si>
   <si>
-    <t>Santos</t>
-  </si>
-  <si>
-    <t>Bragantino</t>
-  </si>
-  <si>
-    <t>América Mineiro</t>
+    <t>EC São José</t>
+  </si>
+  <si>
+    <t>Forge FC</t>
   </si>
   <si>
     <t>Rosario Central</t>
   </si>
   <si>
-    <t>Forge FC</t>
-  </si>
-  <si>
-    <t>EC São José</t>
-  </si>
-  <si>
     <t>Atlético Rafaela</t>
   </si>
   <si>
@@ -460,48 +460,48 @@
     <t>Gangwon</t>
   </si>
   <si>
+    <t>Jubilo Iwata</t>
+  </si>
+  <si>
     <t>Vissel Kobe</t>
   </si>
   <si>
-    <t>Jubilo Iwata</t>
-  </si>
-  <si>
     <t>Shimizu S-Pulse</t>
   </si>
   <si>
     <t>Skeid</t>
   </si>
   <si>
+    <t>Kristiansund</t>
+  </si>
+  <si>
+    <t>Kongsvinger</t>
+  </si>
+  <si>
+    <t>Racing</t>
+  </si>
+  <si>
     <t>Sandnes Ulf</t>
   </si>
   <si>
-    <t>Kristiansund</t>
-  </si>
-  <si>
-    <t>Racing</t>
-  </si>
-  <si>
-    <t>Kongsvinger</t>
-  </si>
-  <si>
     <t>ABC</t>
   </si>
   <si>
     <t>Odd</t>
   </si>
   <si>
+    <t>Sarpsborg 08</t>
+  </si>
+  <si>
+    <t>Stabæk</t>
+  </si>
+  <si>
     <t>Deportivo Riestra</t>
   </si>
   <si>
     <t>Haugesund</t>
   </si>
   <si>
-    <t>Stabæk</t>
-  </si>
-  <si>
-    <t>Sarpsborg 08</t>
-  </si>
-  <si>
     <t>Albion</t>
   </si>
   <si>
@@ -511,63 +511,63 @@
     <t>FK Bodo - Glimt</t>
   </si>
   <si>
+    <t>Sport Boys</t>
+  </si>
+  <si>
+    <t>Deportivo Morón</t>
+  </si>
+  <si>
+    <t>Novo Hamburgo</t>
+  </si>
+  <si>
+    <t>Cerro Largo</t>
+  </si>
+  <si>
     <t>Sud América</t>
   </si>
   <si>
     <t>Racing Córdoba</t>
   </si>
   <si>
-    <t>Novo Hamburgo</t>
-  </si>
-  <si>
-    <t>Sport Boys</t>
-  </si>
-  <si>
-    <t>Cerro Largo</t>
-  </si>
-  <si>
-    <t>Deportivo Morón</t>
-  </si>
-  <si>
     <t>Nueva Chicago</t>
   </si>
   <si>
     <t>Ceará</t>
   </si>
   <si>
+    <t>CEOV Operário</t>
+  </si>
+  <si>
     <t>Club Atlético Mitre</t>
   </si>
   <si>
-    <t>CEOV Operário</t>
-  </si>
-  <si>
     <t>Platense</t>
   </si>
   <si>
+    <t>Pouso Alegre</t>
+  </si>
+  <si>
+    <t>Brasil de Pelotas</t>
+  </si>
+  <si>
+    <t>Botafogo</t>
+  </si>
+  <si>
+    <t>Coritiba</t>
+  </si>
+  <si>
+    <t>Interporto</t>
+  </si>
+  <si>
+    <t>Vancouver FC</t>
+  </si>
+  <si>
+    <t>Blooming</t>
+  </si>
+  <si>
     <t>Gimnasia Jujuy</t>
   </si>
   <si>
-    <t>Pouso Alegre</t>
-  </si>
-  <si>
-    <t>Brasil de Pelotas</t>
-  </si>
-  <si>
-    <t>Interporto</t>
-  </si>
-  <si>
-    <t>Coritiba</t>
-  </si>
-  <si>
-    <t>Vancouver FC</t>
-  </si>
-  <si>
-    <t>Blooming</t>
-  </si>
-  <si>
-    <t>Botafogo</t>
-  </si>
-  <si>
     <t>Ypiranga Erechim</t>
   </si>
   <si>
@@ -577,34 +577,34 @@
     <t>Deportivo La Guaira</t>
   </si>
   <si>
+    <t>Boston River</t>
+  </si>
+  <si>
     <t>Deportivo Municipal</t>
   </si>
   <si>
-    <t>Boston River</t>
-  </si>
-  <si>
     <t>Vitória</t>
   </si>
   <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Goiás</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
     <t>Santa Cruz</t>
   </si>
   <si>
-    <t>Flamengo</t>
-  </si>
-  <si>
-    <t>Goiás</t>
-  </si>
-  <si>
-    <t>Internacional</t>
+    <t>São Bernardo</t>
+  </si>
+  <si>
+    <t>Atlético Ottawa</t>
   </si>
   <si>
     <t>Colón</t>
-  </si>
-  <si>
-    <t>Atlético Ottawa</t>
-  </si>
-  <si>
-    <t>São Bernardo</t>
   </si>
   <si>
     <t>Atlanta</t>
@@ -1132,10 +1132,10 @@
         <v>3.6</v>
       </c>
       <c r="N2">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="O2">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="P2">
         <v>1.36</v>
@@ -1159,10 +1159,10 @@
         <v>1.9</v>
       </c>
       <c r="W2">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="X2">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="Y2">
         <v>1.59</v>
@@ -1218,13 +1218,13 @@
         <v>142</v>
       </c>
       <c r="G3">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="H3">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I3">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J3">
         <v>1.08</v>
@@ -1239,7 +1239,7 @@
         <v>3.1</v>
       </c>
       <c r="N3">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O3">
         <v>1.67</v>
@@ -1266,10 +1266,10 @@
         <v>1.8</v>
       </c>
       <c r="W3">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="X3">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="Y3">
         <v>1.29</v>
@@ -1325,13 +1325,13 @@
         <v>143</v>
       </c>
       <c r="G4">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="H4">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
       <c r="J4">
         <v>1.08</v>
@@ -1346,10 +1346,10 @@
         <v>3</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O4">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="P4">
         <v>1.44</v>
@@ -1373,10 +1373,10 @@
         <v>1.35</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="X4">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="Y4">
         <v>1.67</v>
@@ -1432,13 +1432,13 @@
         <v>144</v>
       </c>
       <c r="G5">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="H5">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I5">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <v>1.07</v>
@@ -1453,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="N5">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="P5">
         <v>1.45</v>
@@ -1480,10 +1480,10 @@
         <v>1.9</v>
       </c>
       <c r="W5">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X5">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="Y5">
         <v>1.45</v>
@@ -1539,13 +1539,13 @@
         <v>145</v>
       </c>
       <c r="G6">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="H6">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I6">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="J6">
         <v>1.08</v>
@@ -1560,10 +1560,10 @@
         <v>2.9</v>
       </c>
       <c r="N6">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O6">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P6">
         <v>1.44</v>
@@ -1587,10 +1587,10 @@
         <v>1.5</v>
       </c>
       <c r="W6">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="X6">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="Y6">
         <v>1.3</v>
@@ -1646,13 +1646,13 @@
         <v>146</v>
       </c>
       <c r="G7">
-        <v>2.91</v>
+        <v>3.25</v>
       </c>
       <c r="H7">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J7">
         <v>1.08</v>
@@ -1667,10 +1667,10 @@
         <v>3</v>
       </c>
       <c r="N7">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O7">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="P7">
         <v>1.44</v>
@@ -1694,10 +1694,10 @@
         <v>1.28</v>
       </c>
       <c r="W7">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="Y7">
         <v>1.23</v>
@@ -1753,13 +1753,13 @@
         <v>147</v>
       </c>
       <c r="G8">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H8">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I8">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J8">
         <v>1.05</v>
@@ -1774,10 +1774,10 @@
         <v>3.5</v>
       </c>
       <c r="N8">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="O8">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="P8">
         <v>1.36</v>
@@ -1801,10 +1801,10 @@
         <v>1.53</v>
       </c>
       <c r="W8">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X8">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="Y8">
         <v>1.41</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2">
         <v>45102</v>
@@ -1851,7 +1851,7 @@
         <v>60</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
@@ -1863,93 +1863,93 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I9">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="J9">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K9">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="L9">
+        <v>1.25</v>
+      </c>
+      <c r="M9">
+        <v>3.6</v>
+      </c>
+      <c r="N9">
+        <v>1.75</v>
+      </c>
+      <c r="O9">
+        <v>1.91</v>
+      </c>
+      <c r="P9">
         <v>1.36</v>
       </c>
-      <c r="M9">
+      <c r="Q9">
         <v>3</v>
       </c>
-      <c r="N9">
-        <v>2.08</v>
-      </c>
-      <c r="O9">
-        <v>1.66</v>
-      </c>
-      <c r="P9">
-        <v>1.44</v>
-      </c>
-      <c r="Q9">
-        <v>2.63</v>
-      </c>
       <c r="R9">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="S9">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="T9">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="U9">
         <v>1.25</v>
       </c>
       <c r="V9">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="W9">
-        <v>1.89</v>
+        <v>1.17</v>
       </c>
       <c r="X9">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="Y9">
         <v>1.51</v>
       </c>
       <c r="Z9">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="AA9">
-        <v>3.04</v>
+        <v>3.15</v>
       </c>
       <c r="AB9">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AC9">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="AD9">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AE9">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AF9">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="AG9">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="AH9">
-        <v>2.72</v>
+        <v>2.25</v>
       </c>
       <c r="AI9">
-        <v>3.74</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
         <v>45102</v>
@@ -1958,7 +1958,7 @@
         <v>60</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
         <v>89</v>
@@ -1970,88 +1970,88 @@
         <v>3.2</v>
       </c>
       <c r="H10">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I10">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="J10">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L10">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="M10">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N10">
-        <v>1.77</v>
+        <v>2.05</v>
       </c>
       <c r="O10">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="P10">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R10">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="S10">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="T10">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="U10">
         <v>1.25</v>
       </c>
       <c r="V10">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="W10">
-        <v>1.27</v>
+        <v>1.7</v>
       </c>
       <c r="X10">
-        <v>1.7</v>
+        <v>2.13</v>
       </c>
       <c r="Y10">
         <v>1.51</v>
       </c>
       <c r="Z10">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AA10">
-        <v>3.15</v>
+        <v>3.04</v>
       </c>
       <c r="AB10">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AC10">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="AD10">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AE10">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AF10">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="AG10">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="AH10">
-        <v>2.25</v>
+        <v>2.72</v>
       </c>
       <c r="AI10">
-        <v>3.15</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -2074,10 +2074,10 @@
         <v>150</v>
       </c>
       <c r="G11">
-        <v>5.4</v>
+        <v>5.25</v>
       </c>
       <c r="H11">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I11">
         <v>1.57</v>
@@ -2095,7 +2095,7 @@
         <v>3.75</v>
       </c>
       <c r="N11">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O11">
         <v>1.83</v>
@@ -2122,10 +2122,10 @@
         <v>1.11</v>
       </c>
       <c r="W11">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X11">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Y11">
         <v>0.99</v>
@@ -2181,13 +2181,13 @@
         <v>151</v>
       </c>
       <c r="G12">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="H12">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I12">
-        <v>2.93</v>
+        <v>3.5</v>
       </c>
       <c r="J12">
         <v>1.02</v>
@@ -2202,10 +2202,10 @@
         <v>4.2</v>
       </c>
       <c r="N12">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="O12">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P12">
         <v>1.33</v>
@@ -2288,91 +2288,91 @@
         <v>152</v>
       </c>
       <c r="G13">
-        <v>1.88</v>
+        <v>3.1</v>
       </c>
       <c r="H13">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I13">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <v>1.02</v>
       </c>
       <c r="K13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L13">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="M13">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="O13">
-        <v>2.2</v>
+        <v>2.01</v>
       </c>
       <c r="P13">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q13">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="R13">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="S13">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="T13">
-        <v>1.22</v>
+        <v>1.83</v>
       </c>
       <c r="U13">
         <v>1.2</v>
       </c>
       <c r="V13">
-        <v>2.05</v>
+        <v>1.35</v>
       </c>
       <c r="W13">
-        <v>1.83</v>
+        <v>0.4</v>
       </c>
       <c r="X13">
         <v>1</v>
       </c>
       <c r="Y13">
+        <v>1.46</v>
+      </c>
+      <c r="Z13">
         <v>1.38</v>
       </c>
-      <c r="Z13">
-        <v>1.13</v>
-      </c>
       <c r="AA13">
-        <v>2.51</v>
+        <v>2.84</v>
       </c>
       <c r="AB13">
-        <v>1.51</v>
+        <v>2.28</v>
       </c>
       <c r="AC13">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD13">
-        <v>3.06</v>
+        <v>1.82</v>
       </c>
       <c r="AE13">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AF13">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AG13">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AH13">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="AI13">
-        <v>2.43</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2395,91 +2395,91 @@
         <v>153</v>
       </c>
       <c r="G14">
+        <v>2.75</v>
+      </c>
+      <c r="H14">
+        <v>3.2</v>
+      </c>
+      <c r="I14">
+        <v>2.25</v>
+      </c>
+      <c r="J14">
+        <v>1.03</v>
+      </c>
+      <c r="K14">
+        <v>15</v>
+      </c>
+      <c r="L14">
+        <v>1.25</v>
+      </c>
+      <c r="M14">
         <v>4</v>
       </c>
-      <c r="H14">
-        <v>3.7</v>
-      </c>
-      <c r="I14">
-        <v>1.67</v>
-      </c>
-      <c r="J14">
-        <v>1.02</v>
-      </c>
-      <c r="K14">
-        <v>13</v>
-      </c>
-      <c r="L14">
-        <v>1.16</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
       <c r="N14">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="O14">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="P14">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="Q14">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="R14">
+        <v>1.62</v>
+      </c>
+      <c r="S14">
+        <v>2.2</v>
+      </c>
+      <c r="T14">
+        <v>1.63</v>
+      </c>
+      <c r="U14">
+        <v>1.22</v>
+      </c>
+      <c r="V14">
         <v>1.44</v>
       </c>
-      <c r="S14">
-        <v>2.63</v>
-      </c>
-      <c r="T14">
-        <v>1.83</v>
-      </c>
-      <c r="U14">
-        <v>1.2</v>
-      </c>
-      <c r="V14">
-        <v>1.35</v>
-      </c>
       <c r="W14">
-        <v>0.4</v>
+        <v>2.17</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Y14">
-        <v>1.46</v>
+        <v>1.82</v>
       </c>
       <c r="Z14">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="AA14">
-        <v>2.84</v>
+        <v>3.08</v>
       </c>
       <c r="AB14">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="AC14">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD14">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="AE14">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AF14">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="AG14">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="AH14">
-        <v>1.73</v>
+        <v>2.23</v>
       </c>
       <c r="AI14">
-        <v>2.18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2502,13 +2502,13 @@
         <v>154</v>
       </c>
       <c r="G15">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H15">
-        <v>3.2</v>
+        <v>3.12</v>
       </c>
       <c r="I15">
-        <v>2.85</v>
+        <v>2.99</v>
       </c>
       <c r="J15">
         <v>1.08</v>
@@ -2523,10 +2523,10 @@
         <v>2.63</v>
       </c>
       <c r="N15">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="O15">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="P15">
         <v>1.5</v>
@@ -2609,37 +2609,37 @@
         <v>155</v>
       </c>
       <c r="G16">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="H16">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I16">
-        <v>2.28</v>
+        <v>3.9</v>
       </c>
       <c r="J16">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N16">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="O16">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="P16">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q16">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R16">
         <v>1.62</v>
@@ -2648,52 +2648,52 @@
         <v>2.2</v>
       </c>
       <c r="T16">
-        <v>1.63</v>
+        <v>1.22</v>
       </c>
       <c r="U16">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="V16">
-        <v>1.44</v>
+        <v>2.05</v>
       </c>
       <c r="W16">
-        <v>2.17</v>
+        <v>1.83</v>
       </c>
       <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1.38</v>
+      </c>
+      <c r="Z16">
+        <v>1.13</v>
+      </c>
+      <c r="AA16">
+        <v>2.51</v>
+      </c>
+      <c r="AB16">
+        <v>1.51</v>
+      </c>
+      <c r="AC16">
+        <v>9</v>
+      </c>
+      <c r="AD16">
+        <v>3.06</v>
+      </c>
+      <c r="AE16">
+        <v>1.15</v>
+      </c>
+      <c r="AF16">
+        <v>1.29</v>
+      </c>
+      <c r="AG16">
         <v>1.5</v>
       </c>
-      <c r="Y16">
-        <v>1.82</v>
-      </c>
-      <c r="Z16">
-        <v>1.26</v>
-      </c>
-      <c r="AA16">
-        <v>3.08</v>
-      </c>
-      <c r="AB16">
-        <v>2.1</v>
-      </c>
-      <c r="AC16">
-        <v>8</v>
-      </c>
-      <c r="AD16">
-        <v>1.95</v>
-      </c>
-      <c r="AE16">
-        <v>1.22</v>
-      </c>
-      <c r="AF16">
-        <v>1.41</v>
-      </c>
-      <c r="AG16">
-        <v>1.73</v>
-      </c>
       <c r="AH16">
-        <v>2.23</v>
+        <v>1.93</v>
       </c>
       <c r="AI16">
-        <v>3</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2716,13 +2716,13 @@
         <v>156</v>
       </c>
       <c r="G17">
-        <v>1.52</v>
+        <v>1.12</v>
       </c>
       <c r="H17">
-        <v>3.6</v>
+        <v>7.18</v>
       </c>
       <c r="I17">
-        <v>6</v>
+        <v>12.39</v>
       </c>
       <c r="J17">
         <v>1.1</v>
@@ -2737,10 +2737,10 @@
         <v>2.8</v>
       </c>
       <c r="N17">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O17">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P17">
         <v>1.5</v>
@@ -2779,13 +2779,13 @@
         <v>2.72</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AE17">
         <v>1.22</v>
@@ -2823,13 +2823,13 @@
         <v>157</v>
       </c>
       <c r="G18">
-        <v>2.29</v>
+        <v>2.11</v>
       </c>
       <c r="H18">
-        <v>3.15</v>
+        <v>4.43</v>
       </c>
       <c r="I18">
-        <v>2.87</v>
+        <v>2.45</v>
       </c>
       <c r="J18">
         <v>1.05</v>
@@ -2844,10 +2844,10 @@
         <v>3.4</v>
       </c>
       <c r="N18">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="O18">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="P18">
         <v>1.4</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2">
         <v>45102</v>
@@ -2921,7 +2921,7 @@
         <v>64</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
         <v>98</v>
@@ -2930,91 +2930,91 @@
         <v>158</v>
       </c>
       <c r="G19">
-        <v>2.5</v>
+        <v>1.38</v>
       </c>
       <c r="H19">
-        <v>2.8</v>
+        <v>5.12</v>
       </c>
       <c r="I19">
-        <v>3.1</v>
+        <v>5.21</v>
       </c>
       <c r="J19">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="K19">
-        <v>6.2</v>
+        <v>16</v>
       </c>
       <c r="L19">
+        <v>1.19</v>
+      </c>
+      <c r="M19">
+        <v>4.6</v>
+      </c>
+      <c r="N19">
+        <v>1.6</v>
+      </c>
+      <c r="O19">
+        <v>2.2</v>
+      </c>
+      <c r="P19">
+        <v>1.33</v>
+      </c>
+      <c r="Q19">
+        <v>3.25</v>
+      </c>
+      <c r="R19">
         <v>1.57</v>
       </c>
-      <c r="M19">
-        <v>2.33</v>
-      </c>
-      <c r="N19">
-        <v>2.75</v>
-      </c>
-      <c r="O19">
+      <c r="S19">
+        <v>2.25</v>
+      </c>
+      <c r="T19">
+        <v>1.34</v>
+      </c>
+      <c r="U19">
+        <v>1.28</v>
+      </c>
+      <c r="V19">
+        <v>1.79</v>
+      </c>
+      <c r="W19">
+        <v>1.67</v>
+      </c>
+      <c r="X19">
+        <v>1.6</v>
+      </c>
+      <c r="Y19">
         <v>1.42</v>
       </c>
-      <c r="P19">
-        <v>1.63</v>
-      </c>
-      <c r="Q19">
-        <v>2.26</v>
-      </c>
-      <c r="R19">
-        <v>2.23</v>
-      </c>
-      <c r="S19">
+      <c r="Z19">
+        <v>1.89</v>
+      </c>
+      <c r="AA19">
+        <v>3.31</v>
+      </c>
+      <c r="AB19">
+        <v>1.8</v>
+      </c>
+      <c r="AC19">
+        <v>7.4</v>
+      </c>
+      <c r="AD19">
+        <v>2.45</v>
+      </c>
+      <c r="AE19">
+        <v>1.19</v>
+      </c>
+      <c r="AF19">
+        <v>1.37</v>
+      </c>
+      <c r="AG19">
         <v>1.62</v>
       </c>
-      <c r="T19">
-        <v>1.4</v>
-      </c>
-      <c r="U19">
-        <v>1.39</v>
-      </c>
-      <c r="V19">
-        <v>1.48</v>
-      </c>
-      <c r="W19">
-        <v>1.78</v>
-      </c>
-      <c r="X19">
-        <v>0.78</v>
-      </c>
-      <c r="Y19">
-        <v>1.41</v>
-      </c>
-      <c r="Z19">
-        <v>1.28</v>
-      </c>
-      <c r="AA19">
-        <v>2.69</v>
-      </c>
-      <c r="AB19">
-        <v>1.79</v>
-      </c>
-      <c r="AC19">
-        <v>8.5</v>
-      </c>
-      <c r="AD19">
-        <v>2.4</v>
-      </c>
-      <c r="AE19">
-        <v>1.48</v>
-      </c>
-      <c r="AF19">
-        <v>1.83</v>
-      </c>
-      <c r="AG19">
-        <v>2.31</v>
-      </c>
       <c r="AH19">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="AI19">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -3037,96 +3037,96 @@
         <v>159</v>
       </c>
       <c r="G20">
-        <v>1.2</v>
+        <v>2.02</v>
       </c>
       <c r="H20">
-        <v>6.4</v>
+        <v>5.31</v>
       </c>
       <c r="I20">
-        <v>11</v>
+        <v>2.35</v>
       </c>
       <c r="J20">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="K20">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="L20">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="M20">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="N20">
-        <v>1.45</v>
+        <v>2.03</v>
       </c>
       <c r="O20">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="P20">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="Q20">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>1.02</v>
+        <v>1.3</v>
       </c>
       <c r="U20">
-        <v>1.07</v>
+        <v>1.35</v>
       </c>
       <c r="V20">
-        <v>4.75</v>
+        <v>1.72</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="X20">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="Y20">
-        <v>2.01</v>
+        <v>1.24</v>
       </c>
       <c r="Z20">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA20">
-        <v>2.88</v>
+        <v>2.18</v>
       </c>
       <c r="AB20">
-        <v>1.05</v>
+        <v>1.85</v>
       </c>
       <c r="AC20">
-        <v>18</v>
+        <v>7.2</v>
       </c>
       <c r="AD20">
-        <v>11</v>
+        <v>2.38</v>
       </c>
       <c r="AE20">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF20">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="AG20">
-        <v>1.46</v>
+        <v>1.82</v>
       </c>
       <c r="AH20">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="AI20">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2">
         <v>45102</v>
@@ -3135,7 +3135,7 @@
         <v>64</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
         <v>100</v>
@@ -3144,91 +3144,91 @@
         <v>160</v>
       </c>
       <c r="G21">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H21">
-        <v>3.15</v>
+        <v>4.03</v>
       </c>
       <c r="I21">
-        <v>3.4</v>
+        <v>2.74</v>
       </c>
       <c r="J21">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>6.2</v>
       </c>
       <c r="L21">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="M21">
-        <v>3.6</v>
+        <v>2.33</v>
       </c>
       <c r="N21">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="O21">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="P21">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="Q21">
-        <v>2.63</v>
+        <v>2.26</v>
       </c>
       <c r="R21">
-        <v>1.8</v>
+        <v>2.23</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="T21">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U21">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="V21">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
       <c r="W21">
-        <v>1.4</v>
+        <v>1.78</v>
       </c>
       <c r="X21">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="Y21">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="Z21">
-        <v>0.9399999999999999</v>
+        <v>1.28</v>
       </c>
       <c r="AA21">
-        <v>2.18</v>
+        <v>2.69</v>
       </c>
       <c r="AB21">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AC21">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="AD21">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="AE21">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="AF21">
-        <v>1.49</v>
+        <v>1.83</v>
       </c>
       <c r="AG21">
-        <v>1.82</v>
+        <v>2.31</v>
       </c>
       <c r="AH21">
-        <v>2.33</v>
+        <v>3.3</v>
       </c>
       <c r="AI21">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -3251,91 +3251,91 @@
         <v>161</v>
       </c>
       <c r="G22">
-        <v>2.04</v>
+        <v>1.18</v>
       </c>
       <c r="H22">
-        <v>3.4</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I22">
-        <v>3.15</v>
+        <v>6.47</v>
       </c>
       <c r="J22">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K22">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L22">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="M22">
-        <v>4.6</v>
+        <v>6.5</v>
       </c>
       <c r="N22">
-        <v>1.63</v>
+        <v>1.4</v>
       </c>
       <c r="O22">
-        <v>2.13</v>
+        <v>2.75</v>
       </c>
       <c r="P22">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="Q22">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="R22">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T22">
-        <v>1.34</v>
+        <v>1.02</v>
       </c>
       <c r="U22">
-        <v>1.28</v>
+        <v>1.07</v>
       </c>
       <c r="V22">
-        <v>1.79</v>
+        <v>4.75</v>
       </c>
       <c r="W22">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="X22">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="Y22">
-        <v>1.42</v>
+        <v>2.01</v>
       </c>
       <c r="Z22">
-        <v>1.89</v>
+        <v>0.87</v>
       </c>
       <c r="AA22">
-        <v>3.31</v>
+        <v>2.88</v>
       </c>
       <c r="AB22">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="AC22">
-        <v>7.4</v>
+        <v>18</v>
       </c>
       <c r="AD22">
-        <v>2.45</v>
+        <v>11</v>
       </c>
       <c r="AE22">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="AF22">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="AG22">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AH22">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AI22">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3358,10 +3358,10 @@
         <v>162</v>
       </c>
       <c r="G23">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="H23">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I23">
         <v>2.55</v>
@@ -3379,10 +3379,10 @@
         <v>2.48</v>
       </c>
       <c r="N23">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="O23">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P23">
         <v>1.54</v>
@@ -3465,13 +3465,13 @@
         <v>163</v>
       </c>
       <c r="G24">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="H24">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I24">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="J24">
         <v>1.05</v>
@@ -3486,10 +3486,10 @@
         <v>3.5</v>
       </c>
       <c r="N24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P24">
         <v>1.38</v>
@@ -3572,13 +3572,13 @@
         <v>164</v>
       </c>
       <c r="G25">
-        <v>4.6</v>
+        <v>5.09</v>
       </c>
       <c r="H25">
-        <v>3.9</v>
+        <v>7.41</v>
       </c>
       <c r="I25">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="J25">
         <v>1.02</v>
@@ -3593,10 +3593,10 @@
         <v>6.5</v>
       </c>
       <c r="N25">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="O25">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P25">
         <v>1.22</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2">
         <v>45102</v>
@@ -3670,7 +3670,7 @@
         <v>68</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
         <v>105</v>
@@ -3679,91 +3679,91 @@
         <v>165</v>
       </c>
       <c r="G26">
-        <v>2.4</v>
+        <v>1.37</v>
       </c>
       <c r="H26">
-        <v>3.02</v>
+        <v>3.9</v>
       </c>
       <c r="I26">
-        <v>3.02</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="J26">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K26">
+        <v>15</v>
+      </c>
+      <c r="L26">
+        <v>1.22</v>
+      </c>
+      <c r="M26">
+        <v>4.2</v>
+      </c>
+      <c r="N26">
+        <v>1.7</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>1.32</v>
+      </c>
+      <c r="Q26">
+        <v>3.22</v>
+      </c>
+      <c r="R26">
+        <v>1.72</v>
+      </c>
+      <c r="S26">
+        <v>2.07</v>
+      </c>
+      <c r="T26">
+        <v>1.16</v>
+      </c>
+      <c r="U26">
+        <v>1.22</v>
+      </c>
+      <c r="V26">
+        <v>2.15</v>
+      </c>
+      <c r="W26">
+        <v>2</v>
+      </c>
+      <c r="X26">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="Y26">
+        <v>1.49</v>
+      </c>
+      <c r="Z26">
+        <v>0.9</v>
+      </c>
+      <c r="AA26">
+        <v>2.39</v>
+      </c>
+      <c r="AB26">
+        <v>1.37</v>
+      </c>
+      <c r="AC26">
         <v>8</v>
       </c>
-      <c r="L26">
-        <v>1.31</v>
-      </c>
-      <c r="M26">
-        <v>3.1</v>
-      </c>
-      <c r="N26">
-        <v>2.13</v>
-      </c>
-      <c r="O26">
-        <v>1.7</v>
-      </c>
-      <c r="P26">
-        <v>1.47</v>
-      </c>
-      <c r="Q26">
-        <v>2.37</v>
-      </c>
-      <c r="R26">
-        <v>1.78</v>
-      </c>
-      <c r="S26">
-        <v>1.99</v>
-      </c>
-      <c r="T26">
-        <v>1.41</v>
-      </c>
-      <c r="U26">
-        <v>1.34</v>
-      </c>
-      <c r="V26">
+      <c r="AD26">
+        <v>4.5</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
         <v>1.45</v>
       </c>
-      <c r="W26">
-        <v>1.17</v>
-      </c>
-      <c r="X26">
-        <v>1.17</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>1.45</v>
-      </c>
-      <c r="AA26">
-        <v>1.45</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3777,7 +3777,7 @@
         <v>68</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
         <v>106</v>
@@ -3786,96 +3786,96 @@
         <v>166</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="H27">
+        <v>4.62</v>
+      </c>
+      <c r="I27">
+        <v>2.24</v>
+      </c>
+      <c r="J27">
+        <v>1.12</v>
+      </c>
+      <c r="K27">
+        <v>6.1</v>
+      </c>
+      <c r="L27">
+        <v>1.67</v>
+      </c>
+      <c r="M27">
+        <v>2.1</v>
+      </c>
+      <c r="N27">
         <v>3</v>
       </c>
-      <c r="I27">
-        <v>4</v>
-      </c>
-      <c r="J27">
-        <v>1.11</v>
-      </c>
-      <c r="K27">
-        <v>6.75</v>
-      </c>
-      <c r="L27">
+      <c r="O27">
+        <v>1.33</v>
+      </c>
+      <c r="P27">
+        <v>1.66</v>
+      </c>
+      <c r="Q27">
+        <v>2.2</v>
+      </c>
+      <c r="R27">
+        <v>2.31</v>
+      </c>
+      <c r="S27">
+        <v>1.58</v>
+      </c>
+      <c r="T27">
+        <v>1.31</v>
+      </c>
+      <c r="U27">
+        <v>1.39</v>
+      </c>
+      <c r="V27">
+        <v>1.6</v>
+      </c>
+      <c r="W27">
+        <v>1.3</v>
+      </c>
+      <c r="X27">
+        <v>1.1</v>
+      </c>
+      <c r="Y27">
+        <v>1.48</v>
+      </c>
+      <c r="Z27">
+        <v>1.15</v>
+      </c>
+      <c r="AA27">
+        <v>2.63</v>
+      </c>
+      <c r="AB27">
+        <v>1.9</v>
+      </c>
+      <c r="AC27">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AD27">
+        <v>2.24</v>
+      </c>
+      <c r="AE27">
         <v>1.52</v>
       </c>
-      <c r="M27">
-        <v>2.37</v>
-      </c>
-      <c r="N27">
-        <v>2.65</v>
-      </c>
-      <c r="O27">
-        <v>1.44</v>
-      </c>
-      <c r="P27">
-        <v>1.61</v>
-      </c>
-      <c r="Q27">
-        <v>2.3</v>
-      </c>
-      <c r="R27">
-        <v>2.29</v>
-      </c>
-      <c r="S27">
-        <v>1.59</v>
-      </c>
-      <c r="T27">
-        <v>1.24</v>
-      </c>
-      <c r="U27">
-        <v>1.36</v>
-      </c>
-      <c r="V27">
-        <v>1.77</v>
-      </c>
-      <c r="W27">
-        <v>1.56</v>
-      </c>
-      <c r="X27">
-        <v>0.67</v>
-      </c>
-      <c r="Y27">
-        <v>1.53</v>
-      </c>
-      <c r="Z27">
-        <v>1.37</v>
-      </c>
-      <c r="AA27">
-        <v>2.9</v>
-      </c>
-      <c r="AB27">
-        <v>1.74</v>
-      </c>
-      <c r="AC27">
-        <v>8.5</v>
-      </c>
-      <c r="AD27">
-        <v>2.49</v>
-      </c>
-      <c r="AE27">
-        <v>1.43</v>
-      </c>
       <c r="AF27">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AG27">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="AH27">
-        <v>3.15</v>
+        <v>3.28</v>
       </c>
       <c r="AI27">
-        <v>4.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2">
         <v>45102</v>
@@ -3893,13 +3893,13 @@
         <v>167</v>
       </c>
       <c r="G28">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H28">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="I28">
-        <v>7.4</v>
+        <v>7.25</v>
       </c>
       <c r="J28">
         <v>1.05</v>
@@ -3914,10 +3914,10 @@
         <v>2.88</v>
       </c>
       <c r="N28">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="O28">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P28">
         <v>1.47</v>
@@ -3926,10 +3926,10 @@
         <v>2.27</v>
       </c>
       <c r="R28">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="S28">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="T28">
         <v>1.06</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2">
         <v>45102</v>
@@ -3991,7 +3991,7 @@
         <v>68</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
         <v>108</v>
@@ -4000,96 +4000,96 @@
         <v>168</v>
       </c>
       <c r="G29">
-        <v>1.59</v>
+        <v>2.09</v>
       </c>
       <c r="H29">
-        <v>3.7</v>
+        <v>4.93</v>
       </c>
       <c r="I29">
-        <v>4.55</v>
+        <v>2.33</v>
       </c>
       <c r="J29">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K29">
-        <v>15</v>
+        <v>7.9</v>
       </c>
       <c r="L29">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="M29">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>1.7</v>
+      </c>
+      <c r="P29">
+        <v>1.42</v>
+      </c>
+      <c r="Q29">
+        <v>2.65</v>
+      </c>
+      <c r="R29">
+        <v>1.75</v>
+      </c>
+      <c r="S29">
+        <v>1.95</v>
+      </c>
+      <c r="T29">
+        <v>1.3</v>
+      </c>
+      <c r="U29">
+        <v>1.32</v>
+      </c>
+      <c r="V29">
+        <v>1.47</v>
+      </c>
+      <c r="W29">
+        <v>1.86</v>
+      </c>
+      <c r="X29">
+        <v>1.38</v>
+      </c>
+      <c r="Y29">
+        <v>1.09</v>
+      </c>
+      <c r="Z29">
+        <v>1.69</v>
+      </c>
+      <c r="AA29">
+        <v>2.78</v>
+      </c>
+      <c r="AB29">
+        <v>1.73</v>
+      </c>
+      <c r="AC29">
+        <v>8</v>
+      </c>
+      <c r="AD29">
+        <v>2.4</v>
+      </c>
+      <c r="AE29">
+        <v>1.2</v>
+      </c>
+      <c r="AF29">
+        <v>1.38</v>
+      </c>
+      <c r="AG29">
         <v>1.67</v>
       </c>
-      <c r="O29">
-        <v>2.1</v>
-      </c>
-      <c r="P29">
-        <v>1.32</v>
-      </c>
-      <c r="Q29">
-        <v>3.22</v>
-      </c>
-      <c r="R29">
-        <v>1.72</v>
-      </c>
-      <c r="S29">
-        <v>2.07</v>
-      </c>
-      <c r="T29">
-        <v>1.16</v>
-      </c>
-      <c r="U29">
-        <v>1.22</v>
-      </c>
-      <c r="V29">
-        <v>2.15</v>
-      </c>
-      <c r="W29">
-        <v>2</v>
-      </c>
-      <c r="X29">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Y29">
-        <v>1.49</v>
-      </c>
-      <c r="Z29">
-        <v>0.9</v>
-      </c>
-      <c r="AA29">
-        <v>2.39</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
       <c r="AH29">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2">
         <v>45102</v>
@@ -4098,7 +4098,7 @@
         <v>68</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
         <v>109</v>
@@ -4107,22 +4107,22 @@
         <v>169</v>
       </c>
       <c r="G30">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H30">
-        <v>3.3</v>
+        <v>3.03</v>
       </c>
       <c r="I30">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="J30">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K30">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="L30">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M30">
         <v>3.1</v>
@@ -4131,67 +4131,67 @@
         <v>2.1</v>
       </c>
       <c r="O30">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="P30">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="Q30">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="R30">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T30">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="U30">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="V30">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="W30">
-        <v>1.86</v>
+        <v>1.17</v>
       </c>
       <c r="X30">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="Y30">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>1.69</v>
+        <v>1.45</v>
       </c>
       <c r="AA30">
-        <v>2.78</v>
+        <v>1.45</v>
       </c>
       <c r="AB30">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD30">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AG30">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AH30">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AI30">
-        <v>2.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -4205,7 +4205,7 @@
         <v>68</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
         <v>110</v>
@@ -4214,91 +4214,91 @@
         <v>170</v>
       </c>
       <c r="G31">
-        <v>2.4</v>
+        <v>1.58</v>
       </c>
       <c r="H31">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>3.25</v>
+        <v>6.9</v>
       </c>
       <c r="J31">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K31">
-        <v>6.1</v>
+        <v>6.75</v>
       </c>
       <c r="L31">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="M31">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="N31">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="O31">
         <v>1.4</v>
       </c>
       <c r="P31">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="Q31">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R31">
-        <v>2.31</v>
+        <v>2.29</v>
       </c>
       <c r="S31">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="T31">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="U31">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="V31">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="W31">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
       <c r="X31">
-        <v>1.1</v>
+        <v>0.67</v>
       </c>
       <c r="Y31">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="Z31">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="AA31">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="AB31">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="AC31">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="AD31">
+        <v>2.49</v>
+      </c>
+      <c r="AE31">
+        <v>1.43</v>
+      </c>
+      <c r="AF31">
+        <v>1.78</v>
+      </c>
+      <c r="AG31">
         <v>2.24</v>
       </c>
-      <c r="AE31">
-        <v>1.52</v>
-      </c>
-      <c r="AF31">
-        <v>1.88</v>
-      </c>
-      <c r="AG31">
-        <v>2.36</v>
-      </c>
       <c r="AH31">
-        <v>3.28</v>
+        <v>3.15</v>
       </c>
       <c r="AI31">
-        <v>5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -4321,13 +4321,13 @@
         <v>171</v>
       </c>
       <c r="G32">
-        <v>1.95</v>
+        <v>1.46</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="I32">
-        <v>4.33</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="J32">
         <v>1.12</v>
@@ -4336,16 +4336,16 @@
         <v>6.1</v>
       </c>
       <c r="L32">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="M32">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="N32">
         <v>2.9</v>
       </c>
       <c r="O32">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P32">
         <v>1.68</v>
@@ -4428,13 +4428,13 @@
         <v>172</v>
       </c>
       <c r="G33">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="H33">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="J33">
         <v>1.1</v>
@@ -4449,10 +4449,10 @@
         <v>2.9</v>
       </c>
       <c r="N33">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O33">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="P33">
         <v>1.44</v>
@@ -4491,13 +4491,13 @@
         <v>3.13</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AE33">
         <v>1.18</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2">
         <v>45102</v>
@@ -4526,7 +4526,7 @@
         <v>70</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
         <v>113</v>
@@ -4535,96 +4535,96 @@
         <v>173</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="H34">
-        <v>3.2</v>
+        <v>2.87</v>
       </c>
       <c r="I34">
-        <v>3.75</v>
+        <v>3.19</v>
       </c>
       <c r="J34">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K34">
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="L34">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="M34">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N34">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O34">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="P34">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="Q34">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="R34">
-        <v>2.21</v>
+        <v>1.93</v>
       </c>
       <c r="S34">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="T34">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="U34">
         <v>1.34</v>
       </c>
       <c r="V34">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="W34">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="X34">
-        <v>1.11</v>
+        <v>1.75</v>
       </c>
       <c r="Y34">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Z34">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AA34">
-        <v>3.39</v>
+        <v>3.44</v>
       </c>
       <c r="AB34">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="AD34">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AE34">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AH34">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AI34">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2">
         <v>45102</v>
@@ -4633,7 +4633,7 @@
         <v>70</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
         <v>114</v>
@@ -4642,91 +4642,91 @@
         <v>174</v>
       </c>
       <c r="G35">
-        <v>2.16</v>
+        <v>1.63</v>
       </c>
       <c r="H35">
-        <v>3.15</v>
+        <v>3.39</v>
       </c>
       <c r="I35">
-        <v>3.35</v>
+        <v>4.95</v>
       </c>
       <c r="J35">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K35">
-        <v>8</v>
+        <v>7.25</v>
       </c>
       <c r="L35">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="M35">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N35">
-        <v>2.17</v>
+        <v>2.4</v>
       </c>
       <c r="O35">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="P35">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="Q35">
-        <v>2.23</v>
+        <v>2.4</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>2.21</v>
       </c>
       <c r="S35">
-        <v>1.81</v>
+        <v>1.63</v>
       </c>
       <c r="T35">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U35">
         <v>1.34</v>
       </c>
       <c r="V35">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="W35">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="X35">
-        <v>1.75</v>
+        <v>1.11</v>
       </c>
       <c r="Y35">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Z35">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AA35">
-        <v>3.44</v>
+        <v>3.39</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -4838,7 +4838,7 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B37" s="2">
         <v>45102</v>
@@ -4847,7 +4847,7 @@
         <v>71</v>
       </c>
       <c r="D37">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
         <v>116</v>
@@ -4856,96 +4856,96 @@
         <v>176</v>
       </c>
       <c r="G37">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="I37">
-        <v>3.6</v>
+        <v>3.12</v>
       </c>
       <c r="J37">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K37">
-        <v>7.25</v>
+        <v>6.5</v>
       </c>
       <c r="L37">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="M37">
-        <v>2.47</v>
+        <v>2.75</v>
       </c>
       <c r="N37">
-        <v>2.45</v>
+        <v>2.16</v>
       </c>
       <c r="O37">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="P37">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="Q37">
-        <v>2.29</v>
+        <v>2.4</v>
       </c>
       <c r="R37">
-        <v>2.13</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="T37">
         <v>1.28</v>
       </c>
       <c r="U37">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="V37">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="W37">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X37">
-        <v>0.78</v>
+        <v>1.75</v>
       </c>
       <c r="Y37">
-        <v>1.35</v>
+        <v>1.84</v>
       </c>
       <c r="Z37">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="AA37">
-        <v>2.58</v>
+        <v>3.34</v>
       </c>
       <c r="AB37">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="AC37">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD37">
-        <v>2.31</v>
+        <v>2.15</v>
       </c>
       <c r="AE37">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="AG37">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="AH37">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="AI37">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2">
         <v>45102</v>
@@ -4963,67 +4963,67 @@
         <v>177</v>
       </c>
       <c r="G38">
-        <v>2.15</v>
+        <v>2.65</v>
       </c>
       <c r="H38">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="I38">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="J38">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K38">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="L38">
+        <v>1.53</v>
+      </c>
+      <c r="M38">
+        <v>2.38</v>
+      </c>
+      <c r="N38">
+        <v>2.58</v>
+      </c>
+      <c r="O38">
+        <v>1.39</v>
+      </c>
+      <c r="P38">
+        <v>1.58</v>
+      </c>
+      <c r="Q38">
+        <v>2.17</v>
+      </c>
+      <c r="R38">
+        <v>2.05</v>
+      </c>
+      <c r="S38">
+        <v>1.68</v>
+      </c>
+      <c r="T38">
+        <v>1.38</v>
+      </c>
+      <c r="U38">
         <v>1.4</v>
       </c>
-      <c r="M38">
-        <v>2.75</v>
-      </c>
-      <c r="N38">
-        <v>2.3</v>
-      </c>
-      <c r="O38">
-        <v>1.57</v>
-      </c>
-      <c r="P38">
-        <v>1.5</v>
-      </c>
-      <c r="Q38">
-        <v>2.4</v>
-      </c>
-      <c r="R38">
-        <v>1.95</v>
-      </c>
-      <c r="S38">
-        <v>1.75</v>
-      </c>
-      <c r="T38">
-        <v>1.28</v>
-      </c>
-      <c r="U38">
-        <v>1.28</v>
-      </c>
       <c r="V38">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="W38">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="X38">
-        <v>1.75</v>
+        <v>0.8</v>
       </c>
       <c r="Y38">
-        <v>1.84</v>
+        <v>1.38</v>
       </c>
       <c r="Z38">
         <v>1.5</v>
       </c>
       <c r="AA38">
-        <v>3.34</v>
+        <v>2.88</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -5041,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="AG38">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="AH38">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="AI38">
         <v>0</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2">
         <v>45102</v>
@@ -5061,7 +5061,7 @@
         <v>71</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
         <v>118</v>
@@ -5070,96 +5070,96 @@
         <v>178</v>
       </c>
       <c r="G39">
+        <v>1.56</v>
+      </c>
+      <c r="H39">
+        <v>3.85</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>1.04</v>
+      </c>
+      <c r="K39">
+        <v>12</v>
+      </c>
+      <c r="L39">
+        <v>1.28</v>
+      </c>
+      <c r="M39">
+        <v>3.6</v>
+      </c>
+      <c r="N39">
+        <v>1.89</v>
+      </c>
+      <c r="O39">
+        <v>1.82</v>
+      </c>
+      <c r="P39">
+        <v>1.37</v>
+      </c>
+      <c r="Q39">
         <v>2.8</v>
       </c>
-      <c r="H39">
-        <v>2.75</v>
-      </c>
-      <c r="I39">
-        <v>2.8</v>
-      </c>
-      <c r="J39">
-        <v>1.11</v>
-      </c>
-      <c r="K39">
-        <v>6.25</v>
-      </c>
-      <c r="L39">
-        <v>1.49</v>
-      </c>
-      <c r="M39">
-        <v>2.45</v>
-      </c>
-      <c r="N39">
-        <v>2.72</v>
-      </c>
-      <c r="O39">
+      <c r="R39">
+        <v>1.95</v>
+      </c>
+      <c r="S39">
+        <v>1.8</v>
+      </c>
+      <c r="T39">
+        <v>1.14</v>
+      </c>
+      <c r="U39">
+        <v>1.23</v>
+      </c>
+      <c r="V39">
+        <v>2.3</v>
+      </c>
+      <c r="W39">
+        <v>2.6</v>
+      </c>
+      <c r="X39">
+        <v>1.8</v>
+      </c>
+      <c r="Y39">
+        <v>2.21</v>
+      </c>
+      <c r="Z39">
+        <v>1.23</v>
+      </c>
+      <c r="AA39">
+        <v>3.44</v>
+      </c>
+      <c r="AB39">
         <v>1.38</v>
       </c>
-      <c r="P39">
-        <v>1.58</v>
-      </c>
-      <c r="Q39">
-        <v>2.17</v>
-      </c>
-      <c r="R39">
-        <v>2.05</v>
-      </c>
-      <c r="S39">
-        <v>1.68</v>
-      </c>
-      <c r="T39">
-        <v>1.38</v>
-      </c>
-      <c r="U39">
-        <v>1.4</v>
-      </c>
-      <c r="V39">
-        <v>1.4</v>
-      </c>
-      <c r="W39">
-        <v>1.4</v>
-      </c>
-      <c r="X39">
-        <v>0.8</v>
-      </c>
-      <c r="Y39">
-        <v>1.38</v>
-      </c>
-      <c r="Z39">
-        <v>1.5</v>
-      </c>
-      <c r="AA39">
-        <v>2.88</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
       <c r="AC39">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AG39">
-        <v>2.2</v>
+        <v>1.52</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AI39">
-        <v>0</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="40" spans="1:35">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2">
         <v>45102</v>
@@ -5168,7 +5168,7 @@
         <v>71</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
         <v>119</v>
@@ -5177,96 +5177,96 @@
         <v>179</v>
       </c>
       <c r="G40">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="H40">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="I40">
-        <v>6.97</v>
+        <v>5.2</v>
       </c>
       <c r="J40">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K40">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L40">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="M40">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="N40">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="O40">
-        <v>2.51</v>
+        <v>1.91</v>
       </c>
       <c r="P40">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="Q40">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="R40">
-        <v>1.54</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="T40">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="U40">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="V40">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="W40">
-        <v>0.75</v>
+        <v>2.33</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Y40">
-        <v>0.92</v>
+        <v>1.97</v>
       </c>
       <c r="Z40">
-        <v>0.98</v>
+        <v>1.13</v>
       </c>
       <c r="AA40">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>3.31</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AG40">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="41" spans="1:35">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41" s="2">
         <v>45102</v>
@@ -5275,7 +5275,7 @@
         <v>71</v>
       </c>
       <c r="D41">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
         <v>120</v>
@@ -5284,91 +5284,91 @@
         <v>180</v>
       </c>
       <c r="G41">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="H41">
-        <v>3.95</v>
+        <v>4.28</v>
       </c>
       <c r="I41">
-        <v>6.1</v>
+        <v>5.52</v>
       </c>
       <c r="J41">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K41">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L41">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="M41">
+        <v>5.75</v>
+      </c>
+      <c r="N41">
+        <v>1.53</v>
+      </c>
+      <c r="O41">
+        <v>2.2</v>
+      </c>
+      <c r="P41">
+        <v>1.24</v>
+      </c>
+      <c r="Q41">
         <v>3.6</v>
       </c>
-      <c r="N41">
-        <v>2.08</v>
-      </c>
-      <c r="O41">
-        <v>1.8</v>
-      </c>
-      <c r="P41">
-        <v>1.37</v>
-      </c>
-      <c r="Q41">
-        <v>2.8</v>
-      </c>
       <c r="R41">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="S41">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="T41">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="U41">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="V41">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="W41">
-        <v>2.33</v>
+        <v>0.75</v>
       </c>
       <c r="X41">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>1.97</v>
+        <v>0.92</v>
       </c>
       <c r="Z41">
-        <v>1.13</v>
+        <v>0.98</v>
       </c>
       <c r="AA41">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="AB41">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="AD41">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="AE41">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AF41">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AG41">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AH41">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AI41">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -5391,13 +5391,13 @@
         <v>181</v>
       </c>
       <c r="G42">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="H42">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I42">
-        <v>5.25</v>
+        <v>4.72</v>
       </c>
       <c r="J42">
         <v>1.04</v>
@@ -5498,13 +5498,13 @@
         <v>182</v>
       </c>
       <c r="G43">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="H43">
-        <v>6</v>
+        <v>5.63</v>
       </c>
       <c r="I43">
-        <v>9</v>
+        <v>8.41</v>
       </c>
       <c r="J43">
         <v>1.02</v>
@@ -5519,10 +5519,10 @@
         <v>5.5</v>
       </c>
       <c r="N43">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="O43">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="P43">
         <v>1.25</v>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2">
         <v>45102</v>
@@ -5596,7 +5596,7 @@
         <v>71</v>
       </c>
       <c r="D44">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E44" t="s">
         <v>123</v>
@@ -5605,91 +5605,91 @@
         <v>183</v>
       </c>
       <c r="G44">
-        <v>1.54</v>
+        <v>2.02</v>
       </c>
       <c r="H44">
-        <v>3.9</v>
+        <v>2.77</v>
       </c>
       <c r="I44">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="J44">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="K44">
-        <v>12</v>
+        <v>7.25</v>
       </c>
       <c r="L44">
+        <v>1.48</v>
+      </c>
+      <c r="M44">
+        <v>2.47</v>
+      </c>
+      <c r="N44">
+        <v>2.55</v>
+      </c>
+      <c r="O44">
+        <v>1.45</v>
+      </c>
+      <c r="P44">
+        <v>1.56</v>
+      </c>
+      <c r="Q44">
+        <v>2.29</v>
+      </c>
+      <c r="R44">
+        <v>2.13</v>
+      </c>
+      <c r="S44">
+        <v>1.68</v>
+      </c>
+      <c r="T44">
         <v>1.28</v>
       </c>
-      <c r="M44">
-        <v>3.6</v>
-      </c>
-      <c r="N44">
-        <v>1.98</v>
-      </c>
-      <c r="O44">
-        <v>1.9</v>
-      </c>
-      <c r="P44">
-        <v>1.37</v>
-      </c>
-      <c r="Q44">
-        <v>2.8</v>
-      </c>
-      <c r="R44">
-        <v>1.95</v>
-      </c>
-      <c r="S44">
-        <v>1.8</v>
-      </c>
-      <c r="T44">
-        <v>1.14</v>
-      </c>
       <c r="U44">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="V44">
-        <v>2.3</v>
+        <v>1.71</v>
       </c>
       <c r="W44">
-        <v>2.6</v>
+        <v>1.22</v>
       </c>
       <c r="X44">
-        <v>1.8</v>
+        <v>0.78</v>
       </c>
       <c r="Y44">
-        <v>2.21</v>
+        <v>1.35</v>
       </c>
       <c r="Z44">
         <v>1.23</v>
       </c>
       <c r="AA44">
-        <v>3.44</v>
+        <v>2.58</v>
       </c>
       <c r="AB44">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="AC44">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD44">
-        <v>3.54</v>
+        <v>2.31</v>
       </c>
       <c r="AE44">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AF44">
-        <v>1.31</v>
+        <v>1.53</v>
       </c>
       <c r="AG44">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
       <c r="AH44">
-        <v>1.85</v>
+        <v>2.34</v>
       </c>
       <c r="AI44">
-        <v>2.34</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -5712,13 +5712,13 @@
         <v>184</v>
       </c>
       <c r="G45">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>2.79</v>
       </c>
       <c r="I45">
-        <v>4.2</v>
+        <v>4.04</v>
       </c>
       <c r="J45">
         <v>1.11</v>
@@ -5775,13 +5775,13 @@
         <v>3.06</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AE45">
         <v>0</v>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2">
         <v>45102</v>
@@ -5819,13 +5819,13 @@
         <v>185</v>
       </c>
       <c r="G46">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="H46">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I46">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="J46">
         <v>1.03</v>
@@ -5840,10 +5840,10 @@
         <v>3.8</v>
       </c>
       <c r="N46">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="O46">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P46">
         <v>1.37</v>
@@ -5926,13 +5926,13 @@
         <v>186</v>
       </c>
       <c r="G47">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="H47">
-        <v>3.27</v>
+        <v>3.17</v>
       </c>
       <c r="I47">
-        <v>3.6</v>
+        <v>3.32</v>
       </c>
       <c r="J47">
         <v>1.03</v>
@@ -5947,7 +5947,7 @@
         <v>3.08</v>
       </c>
       <c r="N47">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="O47">
         <v>1.74</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="48" spans="1:35">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B48" s="2">
         <v>45102</v>
@@ -6024,7 +6024,7 @@
         <v>74</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -6033,96 +6033,96 @@
         <v>187</v>
       </c>
       <c r="G48">
-        <v>1.89</v>
+        <v>2.17</v>
       </c>
       <c r="H48">
-        <v>3.4</v>
+        <v>3.03</v>
       </c>
       <c r="I48">
-        <v>3.35</v>
+        <v>2.5</v>
       </c>
       <c r="J48">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K48">
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="L48">
+        <v>1.31</v>
+      </c>
+      <c r="M48">
+        <v>3.08</v>
+      </c>
+      <c r="N48">
+        <v>1.93</v>
+      </c>
+      <c r="O48">
+        <v>1.83</v>
+      </c>
+      <c r="P48">
+        <v>1.43</v>
+      </c>
+      <c r="Q48">
+        <v>2.71</v>
+      </c>
+      <c r="R48">
+        <v>1.78</v>
+      </c>
+      <c r="S48">
+        <v>1.93</v>
+      </c>
+      <c r="T48">
+        <v>1.42</v>
+      </c>
+      <c r="U48">
+        <v>1.33</v>
+      </c>
+      <c r="V48">
+        <v>1.33</v>
+      </c>
+      <c r="W48">
+        <v>0.44</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Y48">
         <v>1.28</v>
       </c>
-      <c r="M48">
-        <v>3.6</v>
-      </c>
-      <c r="N48">
-        <v>1.81</v>
-      </c>
-      <c r="O48">
-        <v>1.95</v>
-      </c>
-      <c r="P48">
-        <v>1.38</v>
-      </c>
-      <c r="Q48">
-        <v>2.91</v>
-      </c>
-      <c r="R48">
-        <v>1.7</v>
-      </c>
-      <c r="S48">
-        <v>2.1</v>
-      </c>
-      <c r="T48">
-        <v>1.28</v>
-      </c>
-      <c r="U48">
-        <v>1.28</v>
-      </c>
-      <c r="V48">
-        <v>1.7</v>
-      </c>
-      <c r="W48">
-        <v>1.67</v>
-      </c>
-      <c r="X48">
+      <c r="Z48">
+        <v>1.6</v>
+      </c>
+      <c r="AA48">
+        <v>2.88</v>
+      </c>
+      <c r="AB48">
+        <v>2</v>
+      </c>
+      <c r="AC48">
+        <v>8</v>
+      </c>
+      <c r="AD48">
+        <v>2.05</v>
+      </c>
+      <c r="AE48">
         <v>1.22</v>
       </c>
-      <c r="Y48">
-        <v>1.82</v>
-      </c>
-      <c r="Z48">
-        <v>1.12</v>
-      </c>
-      <c r="AA48">
-        <v>2.94</v>
-      </c>
-      <c r="AB48">
-        <v>1.67</v>
-      </c>
-      <c r="AC48">
-        <v>8.5</v>
-      </c>
-      <c r="AD48">
-        <v>2.5</v>
-      </c>
-      <c r="AE48">
-        <v>1.17</v>
-      </c>
       <c r="AF48">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AG48">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="AH48">
-        <v>1.9</v>
+        <v>2.23</v>
       </c>
       <c r="AI48">
-        <v>2.45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:35">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2">
         <v>45102</v>
@@ -6131,7 +6131,7 @@
         <v>74</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>128</v>
@@ -6140,91 +6140,91 @@
         <v>188</v>
       </c>
       <c r="G49">
-        <v>2.55</v>
+        <v>2.16</v>
       </c>
       <c r="H49">
-        <v>3.3</v>
+        <v>3.06</v>
       </c>
       <c r="I49">
-        <v>2.6</v>
+        <v>2.71</v>
       </c>
       <c r="J49">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K49">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="L49">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="M49">
-        <v>3.08</v>
+        <v>3.6</v>
       </c>
       <c r="N49">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="O49">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="P49">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="Q49">
-        <v>2.71</v>
+        <v>2.91</v>
       </c>
       <c r="R49">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="S49">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="T49">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="U49">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="V49">
-        <v>1.33</v>
+        <v>1.7</v>
       </c>
       <c r="W49">
-        <v>0.44</v>
+        <v>1.67</v>
       </c>
       <c r="X49">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="Y49">
+        <v>1.82</v>
+      </c>
+      <c r="Z49">
+        <v>1.12</v>
+      </c>
+      <c r="AA49">
+        <v>2.94</v>
+      </c>
+      <c r="AB49">
+        <v>1.67</v>
+      </c>
+      <c r="AC49">
+        <v>8.5</v>
+      </c>
+      <c r="AD49">
+        <v>2.5</v>
+      </c>
+      <c r="AE49">
+        <v>1.17</v>
+      </c>
+      <c r="AF49">
         <v>1.28</v>
       </c>
-      <c r="Z49">
-        <v>1.6</v>
-      </c>
-      <c r="AA49">
-        <v>2.88</v>
-      </c>
-      <c r="AB49">
-        <v>2</v>
-      </c>
-      <c r="AC49">
-        <v>8</v>
-      </c>
-      <c r="AD49">
-        <v>2.05</v>
-      </c>
-      <c r="AE49">
-        <v>1.22</v>
-      </c>
-      <c r="AF49">
-        <v>1.42</v>
-      </c>
       <c r="AG49">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="AH49">
-        <v>2.23</v>
+        <v>1.9</v>
       </c>
       <c r="AI49">
-        <v>3</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="50" spans="1:35">
@@ -6247,13 +6247,13 @@
         <v>189</v>
       </c>
       <c r="G50">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="H50">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="I50">
-        <v>3.15</v>
+        <v>3.11</v>
       </c>
       <c r="J50">
         <v>1.08</v>
@@ -6268,10 +6268,10 @@
         <v>2.75</v>
       </c>
       <c r="N50">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O50">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P50">
         <v>1.5</v>
@@ -6310,13 +6310,13 @@
         <v>2.94</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AC50">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AE50">
         <v>1.21</v>
@@ -6336,7 +6336,7 @@
     </row>
     <row r="51" spans="1:35">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2">
         <v>45102</v>
@@ -6345,7 +6345,7 @@
         <v>76</v>
       </c>
       <c r="D51">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
         <v>130</v>
@@ -6354,91 +6354,91 @@
         <v>190</v>
       </c>
       <c r="G51">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="H51">
-        <v>3.4</v>
+        <v>3.03</v>
       </c>
       <c r="I51">
-        <v>3.38</v>
+        <v>2.83</v>
       </c>
       <c r="J51">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="K51">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="L51">
+        <v>1.36</v>
+      </c>
+      <c r="M51">
+        <v>3</v>
+      </c>
+      <c r="N51">
+        <v>2.1</v>
+      </c>
+      <c r="O51">
+        <v>1.65</v>
+      </c>
+      <c r="P51">
+        <v>1.45</v>
+      </c>
+      <c r="Q51">
+        <v>2.64</v>
+      </c>
+      <c r="R51">
+        <v>1.95</v>
+      </c>
+      <c r="S51">
+        <v>1.8</v>
+      </c>
+      <c r="T51">
+        <v>1.36</v>
+      </c>
+      <c r="U51">
+        <v>1.3</v>
+      </c>
+      <c r="V51">
+        <v>1.57</v>
+      </c>
+      <c r="W51">
         <v>1.17</v>
       </c>
-      <c r="M51">
-        <v>5</v>
-      </c>
-      <c r="N51">
-        <v>1.89</v>
-      </c>
-      <c r="O51">
-        <v>1.89</v>
-      </c>
-      <c r="P51">
-        <v>1.29</v>
-      </c>
-      <c r="Q51">
-        <v>3.25</v>
-      </c>
-      <c r="R51">
-        <v>1.75</v>
-      </c>
-      <c r="S51">
+      <c r="X51">
+        <v>0.83</v>
+      </c>
+      <c r="Y51">
+        <v>1.82</v>
+      </c>
+      <c r="Z51">
+        <v>1.45</v>
+      </c>
+      <c r="AA51">
+        <v>3.27</v>
+      </c>
+      <c r="AB51">
+        <v>1.9</v>
+      </c>
+      <c r="AC51">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD51">
+        <v>2.3</v>
+      </c>
+      <c r="AE51">
+        <v>1.16</v>
+      </c>
+      <c r="AF51">
+        <v>1.33</v>
+      </c>
+      <c r="AG51">
+        <v>1.91</v>
+      </c>
+      <c r="AH51">
         <v>2.03</v>
       </c>
-      <c r="T51">
-        <v>1.05</v>
-      </c>
-      <c r="U51">
-        <v>1.14</v>
-      </c>
-      <c r="V51">
-        <v>2.8</v>
-      </c>
-      <c r="W51">
-        <v>2.29</v>
-      </c>
-      <c r="X51">
-        <v>0.71</v>
-      </c>
-      <c r="Y51">
-        <v>2.17</v>
-      </c>
-      <c r="Z51">
-        <v>1</v>
-      </c>
-      <c r="AA51">
-        <v>3.17</v>
-      </c>
-      <c r="AB51">
-        <v>1.26</v>
-      </c>
-      <c r="AC51">
-        <v>10</v>
-      </c>
-      <c r="AD51">
-        <v>4.86</v>
-      </c>
-      <c r="AE51">
-        <v>1.35</v>
-      </c>
-      <c r="AF51">
-        <v>1.64</v>
-      </c>
-      <c r="AG51">
-        <v>2.1</v>
-      </c>
-      <c r="AH51">
-        <v>2.88</v>
-      </c>
       <c r="AI51">
-        <v>4</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="52" spans="1:35">
@@ -6461,37 +6461,37 @@
         <v>191</v>
       </c>
       <c r="G52">
-        <v>3.85</v>
+        <v>1.56</v>
       </c>
       <c r="H52">
-        <v>3.4</v>
+        <v>3.74</v>
       </c>
       <c r="I52">
-        <v>1.9</v>
+        <v>5.22</v>
       </c>
       <c r="J52">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K52">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L52">
+        <v>1.28</v>
+      </c>
+      <c r="M52">
+        <v>3.6</v>
+      </c>
+      <c r="N52">
+        <v>1.85</v>
+      </c>
+      <c r="O52">
+        <v>1.85</v>
+      </c>
+      <c r="P52">
         <v>1.36</v>
       </c>
-      <c r="M52">
-        <v>3.2</v>
-      </c>
-      <c r="N52">
-        <v>2.15</v>
-      </c>
-      <c r="O52">
-        <v>1.61</v>
-      </c>
-      <c r="P52">
-        <v>1.44</v>
-      </c>
       <c r="Q52">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="R52">
         <v>1.95</v>
@@ -6500,52 +6500,52 @@
         <v>1.8</v>
       </c>
       <c r="T52">
-        <v>1.87</v>
+        <v>1.11</v>
       </c>
       <c r="U52">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="V52">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="W52">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="X52">
-        <v>1.2</v>
+        <v>0.67</v>
       </c>
       <c r="Y52">
-        <v>1.58</v>
+        <v>2.07</v>
       </c>
       <c r="Z52">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="AA52">
-        <v>2.99</v>
+        <v>3.52</v>
       </c>
       <c r="AB52">
-        <v>2.66</v>
+        <v>1.31</v>
       </c>
       <c r="AC52">
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD52">
-        <v>1.64</v>
+        <v>4.58</v>
       </c>
       <c r="AE52">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="AF52">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="AG52">
-        <v>1.91</v>
+        <v>1.42</v>
       </c>
       <c r="AH52">
-        <v>2.13</v>
+        <v>1.72</v>
       </c>
       <c r="AI52">
-        <v>2.8</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="53" spans="1:35">
@@ -6568,96 +6568,96 @@
         <v>192</v>
       </c>
       <c r="G53">
-        <v>1.46</v>
+        <v>4.05</v>
       </c>
       <c r="H53">
-        <v>4.2</v>
+        <v>3.41</v>
       </c>
       <c r="I53">
-        <v>6.4</v>
+        <v>1.79</v>
       </c>
       <c r="J53">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K53">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L53">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N53">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O53">
+        <v>1.65</v>
+      </c>
+      <c r="P53">
+        <v>1.44</v>
+      </c>
+      <c r="Q53">
+        <v>2.55</v>
+      </c>
+      <c r="R53">
+        <v>1.95</v>
+      </c>
+      <c r="S53">
         <v>1.8</v>
       </c>
-      <c r="P53">
-        <v>1.36</v>
-      </c>
-      <c r="Q53">
-        <v>2.9</v>
-      </c>
-      <c r="R53">
-        <v>2.05</v>
-      </c>
-      <c r="S53">
-        <v>1.7</v>
-      </c>
       <c r="T53">
-        <v>1.11</v>
+        <v>1.87</v>
       </c>
       <c r="U53">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="V53">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="W53">
-        <v>2.17</v>
+        <v>1.5</v>
       </c>
       <c r="X53">
-        <v>0.67</v>
+        <v>1.2</v>
       </c>
       <c r="Y53">
-        <v>2.07</v>
+        <v>1.58</v>
       </c>
       <c r="Z53">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AA53">
-        <v>3.52</v>
+        <v>2.99</v>
       </c>
       <c r="AB53">
-        <v>1.32</v>
+        <v>2.36</v>
       </c>
       <c r="AC53">
-        <v>11.2</v>
+        <v>9</v>
       </c>
       <c r="AD53">
-        <v>4.19</v>
+        <v>1.87</v>
       </c>
       <c r="AE53">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="AF53">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="AG53">
-        <v>1.42</v>
+        <v>1.91</v>
       </c>
       <c r="AH53">
-        <v>1.72</v>
+        <v>2.13</v>
       </c>
       <c r="AI53">
-        <v>2.14</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="54" spans="1:35">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2">
         <v>45102</v>
@@ -6666,7 +6666,7 @@
         <v>76</v>
       </c>
       <c r="D54">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E54" t="s">
         <v>133</v>
@@ -6675,96 +6675,96 @@
         <v>193</v>
       </c>
       <c r="G54">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="H54">
+        <v>3.28</v>
+      </c>
+      <c r="I54">
+        <v>3.09</v>
+      </c>
+      <c r="J54">
+        <v>1.03</v>
+      </c>
+      <c r="K54">
+        <v>15</v>
+      </c>
+      <c r="L54">
+        <v>1.17</v>
+      </c>
+      <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="N54">
+        <v>1.8</v>
+      </c>
+      <c r="O54">
+        <v>1.8</v>
+      </c>
+      <c r="P54">
+        <v>1.29</v>
+      </c>
+      <c r="Q54">
         <v>3.25</v>
       </c>
-      <c r="I54">
-        <v>2.95</v>
-      </c>
-      <c r="J54">
-        <v>1.07</v>
-      </c>
-      <c r="K54">
-        <v>7.5</v>
-      </c>
-      <c r="L54">
-        <v>1.36</v>
-      </c>
-      <c r="M54">
-        <v>3</v>
-      </c>
-      <c r="N54">
-        <v>2.15</v>
-      </c>
-      <c r="O54">
-        <v>1.61</v>
-      </c>
-      <c r="P54">
-        <v>1.45</v>
-      </c>
-      <c r="Q54">
-        <v>2.64</v>
-      </c>
       <c r="R54">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>2.03</v>
       </c>
       <c r="T54">
-        <v>1.36</v>
+        <v>1.05</v>
       </c>
       <c r="U54">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="V54">
-        <v>1.57</v>
+        <v>2.8</v>
       </c>
       <c r="W54">
-        <v>1.17</v>
+        <v>2.29</v>
       </c>
       <c r="X54">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="Y54">
-        <v>1.82</v>
+        <v>2.17</v>
       </c>
       <c r="Z54">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="AA54">
-        <v>3.27</v>
+        <v>3.17</v>
       </c>
       <c r="AB54">
-        <v>1.84</v>
+        <v>1.26</v>
       </c>
       <c r="AC54">
-        <v>9.300000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD54">
-        <v>2.3</v>
+        <v>4.86</v>
       </c>
       <c r="AE54">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="AF54">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AG54">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AH54">
-        <v>2.03</v>
+        <v>2.88</v>
       </c>
       <c r="AI54">
-        <v>2.62</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:35">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B55" s="2">
         <v>45102</v>
@@ -6773,7 +6773,7 @@
         <v>77</v>
       </c>
       <c r="D55">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
         <v>134</v>
@@ -6782,91 +6782,91 @@
         <v>194</v>
       </c>
       <c r="G55">
-        <v>2.1</v>
+        <v>2.49</v>
       </c>
       <c r="H55">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="I55">
-        <v>3.4</v>
+        <v>2.73</v>
       </c>
       <c r="J55">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K55">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L55">
+        <v>1.53</v>
+      </c>
+      <c r="M55">
+        <v>2.35</v>
+      </c>
+      <c r="N55">
+        <v>2.63</v>
+      </c>
+      <c r="O55">
         <v>1.37</v>
       </c>
-      <c r="M55">
-        <v>3.05</v>
-      </c>
-      <c r="N55">
-        <v>2.25</v>
-      </c>
-      <c r="O55">
-        <v>1.62</v>
-      </c>
       <c r="P55">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="Q55">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="R55">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="T55">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="U55">
         <v>1.37</v>
       </c>
       <c r="V55">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="W55">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="X55">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="Y55">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="Z55">
-        <v>1.08</v>
+        <v>1.72</v>
       </c>
       <c r="AA55">
-        <v>2.75</v>
+        <v>3.7</v>
       </c>
       <c r="AB55">
-        <v>1.64</v>
+        <v>2.11</v>
       </c>
       <c r="AC55">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD55">
-        <v>2.77</v>
+        <v>1.9</v>
       </c>
       <c r="AE55">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF55">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AG55">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AH55">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AI55">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:35">
@@ -6889,13 +6889,13 @@
         <v>195</v>
       </c>
       <c r="G56">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="H56">
-        <v>3.2</v>
+        <v>2.89</v>
       </c>
       <c r="I56">
-        <v>3.78</v>
+        <v>3.34</v>
       </c>
       <c r="J56">
         <v>1.05</v>
@@ -6978,7 +6978,7 @@
     </row>
     <row r="57" spans="1:35">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" s="2">
         <v>45102</v>
@@ -6987,7 +6987,7 @@
         <v>77</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E57" t="s">
         <v>136</v>
@@ -6996,91 +6996,91 @@
         <v>196</v>
       </c>
       <c r="G57">
+        <v>2.1</v>
+      </c>
+      <c r="H57">
+        <v>3.1</v>
+      </c>
+      <c r="I57">
+        <v>3.4</v>
+      </c>
+      <c r="J57">
+        <v>1.08</v>
+      </c>
+      <c r="K57">
+        <v>9</v>
+      </c>
+      <c r="L57">
+        <v>1.37</v>
+      </c>
+      <c r="M57">
+        <v>3.05</v>
+      </c>
+      <c r="N57">
+        <v>2.25</v>
+      </c>
+      <c r="O57">
+        <v>1.62</v>
+      </c>
+      <c r="P57">
+        <v>1.5</v>
+      </c>
+      <c r="Q57">
         <v>2.5</v>
       </c>
-      <c r="H57">
-        <v>2.75</v>
-      </c>
-      <c r="I57">
-        <v>2.8</v>
-      </c>
-      <c r="J57">
-        <v>1.11</v>
-      </c>
-      <c r="K57">
-        <v>6</v>
-      </c>
-      <c r="L57">
-        <v>1.53</v>
-      </c>
-      <c r="M57">
-        <v>2.35</v>
-      </c>
-      <c r="N57">
-        <v>2.63</v>
-      </c>
-      <c r="O57">
-        <v>1.37</v>
-      </c>
-      <c r="P57">
-        <v>1.58</v>
-      </c>
-      <c r="Q57">
-        <v>2.2</v>
-      </c>
       <c r="R57">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="T57">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="U57">
         <v>1.37</v>
       </c>
       <c r="V57">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="W57">
-        <v>2.33</v>
+        <v>2.6</v>
       </c>
       <c r="X57">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="Y57">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="Z57">
-        <v>1.72</v>
+        <v>1.08</v>
       </c>
       <c r="AA57">
-        <v>3.7</v>
+        <v>2.75</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AC57">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD57">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AE57">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF57">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AG57">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AH57">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="AI57">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="58" spans="1:35">
@@ -7103,13 +7103,13 @@
         <v>197</v>
       </c>
       <c r="G58">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H58">
-        <v>3.3</v>
+        <v>3.03</v>
       </c>
       <c r="I58">
-        <v>4.5</v>
+        <v>3.74</v>
       </c>
       <c r="J58">
         <v>1.05</v>
@@ -7124,7 +7124,7 @@
         <v>2.61</v>
       </c>
       <c r="N58">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O58">
         <v>1.55</v>
@@ -7210,52 +7210,52 @@
         <v>198</v>
       </c>
       <c r="G59">
-        <v>3.23</v>
+        <v>3.15</v>
       </c>
       <c r="H59">
-        <v>3.28</v>
+        <v>3.15</v>
       </c>
       <c r="I59">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N59">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="O59">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="T59">
         <v>1.55</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W59">
         <v>1.67</v>
@@ -7424,13 +7424,13 @@
         <v>200</v>
       </c>
       <c r="G61">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H61">
-        <v>3.18</v>
+        <v>3.08</v>
       </c>
       <c r="I61">
-        <v>3.72</v>
+        <v>3.6</v>
       </c>
       <c r="J61">
         <v>1.08</v>
@@ -7445,10 +7445,10 @@
         <v>2.75</v>
       </c>
       <c r="N61">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="O61">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="P61">
         <v>1.5</v>
@@ -7496,16 +7496,16 @@
         <v>2.9</v>
       </c>
       <c r="AE61">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF61">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG61">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH61">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AI61">
         <v>0</v>
